--- a/przepych/Assets/ExternalResources/NoblesWykaz.xlsx
+++ b/przepych/Assets/ExternalResources/NoblesWykaz.xlsx
@@ -1,61 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28417"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5363909A-CCDC-43E2-B8B0-40880DE648B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Arkusz1" sheetId="1" r:id="rId4"/>
+    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>noble1</t>
-  </si>
-  <si>
-    <t>noble2</t>
-  </si>
-  <si>
-    <t>noble3</t>
-  </si>
-  <si>
-    <t>noble4</t>
-  </si>
-  <si>
-    <t>noble5</t>
-  </si>
-  <si>
-    <t>noble6</t>
-  </si>
-  <si>
-    <t>noble7</t>
-  </si>
-  <si>
-    <t>noble8</t>
-  </si>
-  <si>
-    <t>noble9</t>
-  </si>
-  <si>
-    <t>noble10</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -65,37 +50,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -285,355 +276,369 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="8.71"/>
-    <col customWidth="1" min="3" max="3" width="4.71"/>
-    <col customWidth="1" min="4" max="25" width="8.71"/>
+    <col min="1" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1"/>
+    <col min="4" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1"/>
+    <col min="8" max="25" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="str">
+        <f>"NobleSprites/"&amp;B1&amp;"w"&amp;C1&amp;"u"&amp;D1&amp;"g"&amp;E1&amp;"r"&amp;F1&amp;"k"</f>
+        <v>NobleSprites/0w4u4g0r0k</v>
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f t="shared" ref="G2:G10" si="0">"NobleSprites/"&amp;B2&amp;"w"&amp;C2&amp;"u"&amp;D2&amp;"g"&amp;E2&amp;"r"&amp;F2&amp;"k"</f>
+        <v>NobleSprites/0w0u0g4r4k</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NobleSprites/0w3u3g3r0k</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NobleSprites/3w0u0g3r3k</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="G5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NobleSprites/0w0u3g3r3k</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4.0</v>
-      </c>
       <c r="C6" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NobleSprites/4w4u0g0r0k</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E7" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NobleSprites/0w0u4g4r0k</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NobleSprites/3w3u3g0r0k</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NobleSprites/3w3u0g0r3k</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>NobleSprites/4w0u0g0r4k</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -644,722 +649,722 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:9">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-    </row>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="93" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="94" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="95" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="96" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="97" ht="15.75" customHeight="1"/>
     <row r="98" ht="15.75" customHeight="1"/>
     <row r="99" ht="15.75" customHeight="1"/>
@@ -2266,9 +2271,7 @@
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>